--- a/biology/Médecine/Access_Bars/Access_Bars.xlsx
+++ b/biology/Médecine/Access_Bars/Access_Bars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Access Bars (ou Access Consciousness Bars) est un des outils d'Access Consciousness, visant à faciliter une plus grande ouverture de conscience.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette méthode est inventée en 1990 aux États-Unis, par Gary Douglas.
 Gary Douglas décrit la création d’Access Consciousness comme une série de révélations et d’aperçus, à un moment de sa vie où il avait atteint un point de non-retour après des années passées en quête d'un sens et à suivre des démarches censées lui apporter le bonheur. Tout commence par deux questions: "Que puis-je être, faire, créer ou générer qui ferait de ma vie et du monde un meilleur endroit ? Que puis-je percevoir, savoir et être qui ferait que la vie vaudrait la peine d'être vécue ?"
@@ -547,10 +561,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la méthode est apparue en 2010, et est en pleine croissance depuis 2015. Elle est pratiquée dans plus de 100 pays et par plus de 500 000 personnes.
-Si des centaines de personnes ont témoigné des améliorations qui sont apparues dans leur vie et dans leur façon de vivre, Access Bar a fait l'objet de nombreux signalement auprès de la mission interministérielle de vigilance et de lutte contre les dérives sectaires[1].
+Si des centaines de personnes ont témoigné des améliorations qui sont apparues dans leur vie et dans leur façon de vivre, Access Bar a fait l'objet de nombreux signalement auprès de la mission interministérielle de vigilance et de lutte contre les dérives sectaires.
 Ces bars sont considérés en France comme des pseudosciences.
 </t>
         </is>
@@ -580,9 +596,11 @@
           <t>Dérives sectaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le centre contre les manipulations mentales[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le centre contre les manipulations mentales : 
 « Certains décrivent comment des patients se sont subitement coupés de leur entourage, d’autres décrivent leur ruine financière après avoir investi des milliers d’euros. »
 </t>
         </is>
